--- a/Docs/Maquina 2 ISIS1225 - Tablas de Datos Lab 4-5.xlsx
+++ b/Docs/Maquina 2 ISIS1225 - Tablas de Datos Lab 4-5.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="21240" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4-5" sheetId="1" r:id="rId1"/>
@@ -724,7 +724,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.00438973495809363"/>
+                  <c:y val="0.022770062833055"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -883,8 +888,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0907733367150482"/>
-                  <c:y val="0.0859627773801002"/>
+                  <c:x val="0.0937015944017247"/>
+                  <c:y val="0.102124393541716"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1038,41 +1043,9 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout/>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="es-ES_tradnl"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:trendline>
             <c:spPr>
@@ -1084,12 +1057,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.0937381399799403"/>
+                  <c:y val="0.0878937405551579"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -1258,14 +1235,15 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.0607073932742302"/>
-                  <c:y val="-0.119117155810069"/>
+                  <c:x val="0.0442505850751086"/>
+                  <c:y val="-0.0347535194464328"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1436,8 +1414,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1567,11 +1544,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195069904"/>
-        <c:axId val="195072752"/>
+        <c:axId val="-1692237952"/>
+        <c:axId val="-1692969632"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195069904"/>
+        <c:axId val="-1692237952"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1690,12 +1667,12 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195072752"/>
+        <c:crossAx val="-1692969632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195072752"/>
+        <c:axId val="-1692969632"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1814,7 +1791,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195069904"/>
+        <c:crossAx val="-1692237952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2036,11 +2013,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.133320041639099"/>
+                  <c:y val="0.052543472643516"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2180,11 +2163,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.218357638393032"/>
+                  <c:y val="0.105414398256639"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2324,11 +2313,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0101988547516056"/>
+                  <c:y val="0.0687956731656587"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2485,11 +2480,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0856551179391578"/>
+                  <c:y val="0.203367864930264"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2646,11 +2646,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.025600980645346"/>
+                  <c:y val="0.183026320981557"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2765,12 +2770,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119194720"/>
-        <c:axId val="32358272"/>
+        <c:axId val="-1692897408"/>
+        <c:axId val="-1692893136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119194720"/>
+        <c:axId val="-1692897408"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2887,13 +2893,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="32358272"/>
+        <c:crossAx val="-1692893136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="32358272"/>
+        <c:axId val="-1692893136"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3010,7 +3017,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="119194720"/>
+        <c:crossAx val="-1692897408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3222,11 +3229,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.083426084653623"/>
+                  <c:y val="0.17835764992509"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3378,11 +3391,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.0576483560302289"/>
+                  <c:y val="0.00382092109433573"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -3482,12 +3501,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121577008"/>
-        <c:axId val="121580400"/>
+        <c:axId val="-1692218352"/>
+        <c:axId val="-1692214592"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121577008"/>
+        <c:axId val="-1692218352"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3604,13 +3624,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121580400"/>
+        <c:crossAx val="-1692214592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121580400"/>
+        <c:axId val="-1692214592"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3722,7 +3743,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121577008"/>
+        <c:crossAx val="-1692218352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3929,11 +3950,17 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.054102775428129"/>
+                  <c:y val="0.173653019504614"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4085,7 +4112,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4189,12 +4217,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="121617968"/>
-        <c:axId val="117747728"/>
+        <c:axId val="-1692863840"/>
+        <c:axId val="-1692860080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="121617968"/>
+        <c:axId val="-1692863840"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4311,13 +4340,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="117747728"/>
+        <c:crossAx val="-1692860080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="117747728"/>
+        <c:axId val="-1692860080"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -4429,7 +4459,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121617968"/>
+        <c:crossAx val="-1692863840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4636,7 +4666,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4801,7 +4832,8 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="2"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4914,12 +4946,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195136480"/>
-        <c:axId val="195139872"/>
+        <c:axId val="-1692813760"/>
+        <c:axId val="-1692810000"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195136480"/>
+        <c:axId val="-1692813760"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5036,13 +5069,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195139872"/>
+        <c:crossAx val="-1692810000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195139872"/>
+        <c:axId val="-1692810000"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5154,7 +5188,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195136480"/>
+        <c:crossAx val="-1692813760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5368,7 +5402,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5533,7 +5567,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -5646,12 +5680,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195265920"/>
-        <c:axId val="195269312"/>
+        <c:axId val="-1770326144"/>
+        <c:axId val="-1770320224"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195265920"/>
+        <c:axId val="-1770326144"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5768,13 +5803,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195269312"/>
+        <c:crossAx val="-1770320224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195269312"/>
+        <c:axId val="-1770320224"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -5886,7 +5922,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195265920"/>
+        <c:crossAx val="-1770326144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6100,8 +6136,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -6266,8 +6301,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -6386,12 +6420,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="195310880"/>
-        <c:axId val="195314272"/>
+        <c:axId val="-1692756480"/>
+        <c:axId val="-1692752720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="195310880"/>
+        <c:axId val="-1692756480"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6508,13 +6543,14 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195314272"/>
+        <c:crossAx val="-1692752720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="195314272"/>
+        <c:axId val="-1692752720"/>
         <c:scaling>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6626,7 +6662,7 @@
             <a:endParaRPr lang="es-ES_tradnl"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="195310880"/>
+        <c:crossAx val="-1692756480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -10599,7 +10635,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10610,7 +10646,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="125" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -10682,7 +10718,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F86A8C9-B823-4237-B971-35F9FC141626}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10715,7 +10751,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F79FD9B3-1053-4105-BF53-EDCA2C102566}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10748,7 +10784,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E62ACB43-BF23-44E0-A2C1-1BE0D48E226C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10781,7 +10817,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CD62A27-62EF-4A76-950F-A06EC21FDB46}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10814,7 +10850,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49C9A0CC-8523-4ADB-8134-5F68720F3C67}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10847,7 +10883,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9C9BA942-AC23-41C7-B38E-D0CB98EC3604}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C9BA942-AC23-41C7-B38E-D0CB98EC3604}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10880,7 +10916,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2DBB29D8-2208-4D18-B420-87681137F8B1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2DBB29D8-2208-4D18-B420-87681137F8B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11232,7 +11268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
